--- a/data/labeled_dataset_repos.xlsx
+++ b/data/labeled_dataset_repos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\const\Documents\Bachelorarbeit\bachelor_repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\const\Documents\Bachelorarbeit\bachelor_repo\github-classifier\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA614854-9C69-4EEF-BBF1-49931754C339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78035A6-DE22-4F88-ABE0-8482138A67E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="720" windowWidth="21750" windowHeight="15480" xr2:uid="{22739A3E-992F-4298-AA9B-BA6D95F139BF}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21750" windowHeight="15480" xr2:uid="{22739A3E-992F-4298-AA9B-BA6D95F139BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="377">
   <si>
     <t>html_url</t>
   </si>
@@ -1044,6 +1044,129 @@
   </si>
   <si>
     <t>A clean and simple data loading library for Continual Learning</t>
+  </si>
+  <si>
+    <t>https://github.com/MASILab/3DUX-Net</t>
+  </si>
+  <si>
+    <t>https://github.com/yifita/DSS</t>
+  </si>
+  <si>
+    <t>differentiable-renderer|differentiable-rendering|geometry-processing|inverse-rendering|point-cloud|rendering|siggraph-asia</t>
+  </si>
+  <si>
+    <t>Differentiable Surface Splatting</t>
+  </si>
+  <si>
+    <t>https://github.com/brentyi/tyro</t>
+  </si>
+  <si>
+    <t>argparse|argument-parsing|dataclasses</t>
+  </si>
+  <si>
+    <t>Strongly typed, zero-effort CLI interfaces &amp; config objects</t>
+  </si>
+  <si>
+    <t>https://github.com/AutoViML/Auto_ViML</t>
+  </si>
+  <si>
+    <t>auto-viml|autokeras|automated-machine-learning|automl|automl-algorithms|autosklearn|machine-learning|python|python3|scikit-learn|tpot|xgboost</t>
+  </si>
+  <si>
+    <t>Automatically Build Multiple ML Models with a Single Line of Code. Created by Ram Seshadri. Collaborators Welcome. Permission Granted upon Request.</t>
+  </si>
+  <si>
+    <t>https://github.com/DataCanvasIO/Hypernets</t>
+  </si>
+  <si>
+    <t>autodl|automl|enas|evolutionary-algorithms|hyperparameter-optimization|hyperparameter-tuning|keras|mcts|monte-carlo-tree-search|nas|nasnet|neural-architecture-search|reinforcement-learning</t>
+  </si>
+  <si>
+    <t>A General Automated Machine Learning framework to simplify the development of End-to-end AutoML toolkits in specific domains.</t>
+  </si>
+  <si>
+    <t>https://github.com/showlab/Vlog</t>
+  </si>
+  <si>
+    <t>chatgpt|langchain|large-language-model|video-language|whisper</t>
+  </si>
+  <si>
+    <t>Transform Video as a Document with ChatGPT, CLIP, BLIP2, GRIT, Whisper, LangChain.</t>
+  </si>
+  <si>
+    <t>https://github.com/tensorflow/datasets</t>
+  </si>
+  <si>
+    <t>data|dataset|datasets|jax|machine-learning|numpy|tensorflow</t>
+  </si>
+  <si>
+    <t>TFDS is a collection of datasets ready to use with TensorFlow, Jax, ...</t>
+  </si>
+  <si>
+    <t>https://github.com/cwlroda/falldetection_openpifpaf</t>
+  </si>
+  <si>
+    <t>composite-fields|computer-vision|cpu|deep-learning|detection|fall-detection|gpu|human-pose-estimation|object-tracking|openpifpaf|video-analytics</t>
+  </si>
+  <si>
+    <t>Fall Detection using OpenPifPaf's Human Pose Estimation model</t>
+  </si>
+  <si>
+    <t>https://github.com/7eu7d7/DreamArtist-stable-diffusion</t>
+  </si>
+  <si>
+    <t>stable diffusion webui with contrastive prompt tuning</t>
+  </si>
+  <si>
+    <t>https://github.com/Bismuth-Consultancy-BV/MLOPs</t>
+  </si>
+  <si>
+    <t>Machine Learning Toolset for Houdini</t>
+  </si>
+  <si>
+    <t>https://github.com/YingqingHe/LVDM</t>
+  </si>
+  <si>
+    <t>LVDM: Latent Video Diffusion Models for High-Fidelity Long Video Generation</t>
+  </si>
+  <si>
+    <t>https://github.com/YuliangXiu/ICON</t>
+  </si>
+  <si>
+    <t>3d-reconstruction|animation|avatar-generator|cloth-simulation|computer-graphics|computer-vision|human-pose-estimation|implicit-functions|mesh-deformation|metaverse|normal-maps|pifu|pifuhd|pose-estimation|pytorch|smpl|smpl-body|smpl-model|smplx|virtual-humans</t>
+  </si>
+  <si>
+    <t>[CVPR'22] ICON: Implicit Clothed humans Obtained from Normals</t>
+  </si>
+  <si>
+    <t>https://github.com/webis-de/small-text</t>
+  </si>
+  <si>
+    <t>active-learning|deep-learning|looking-for-contributors|machine-learning|natural-language-processing|nlp|python|pytorch|text-classification|transformers</t>
+  </si>
+  <si>
+    <t>Active Learning for Text Classification in Python</t>
+  </si>
+  <si>
+    <t>https://github.com/modelscope/modelscope</t>
+  </si>
+  <si>
+    <t>cv|deep-learning|machine-learning|multi-modal|nlp|python|science|speech</t>
+  </si>
+  <si>
+    <t>ModelScope: bring the notion of Model-as-a-Service to life.</t>
+  </si>
+  <si>
+    <t>https://github.com/huggingface/optimum-intel</t>
+  </si>
+  <si>
+    <t>diffusers|distillation|inference|intel|onnx|openvino|optimization|pruning|quantization|transformers</t>
+  </si>
+  <si>
+    <t>������������ Optimum Intel: Accelerate inference with Intel optimization tools</t>
+  </si>
+  <si>
+    <t>Plugin</t>
   </si>
 </sst>
 </file>
@@ -1096,12 +1219,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1437,16 +1560,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65A8AEA-A0A5-4449-B988-53D5AD057A76}">
-  <dimension ref="A1:AMJ116"/>
+  <dimension ref="A1:AMJ131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
     <col min="11" max="11" width="26.85546875" customWidth="1"/>
     <col min="12" max="12" width="19.140625" customWidth="1"/>
     <col min="13" max="13" width="18.7109375" customWidth="1"/>
@@ -1492,17 +1615,17 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1" t="s">
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1593,15 +1716,15 @@
       </c>
       <c r="N3">
         <f>COUNTIF(J:J, "*"&amp;N2&amp;"*")</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O3">
         <f>COUNTIF(J:J, "*"&amp;O2&amp;"*")</f>
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="P3">
         <f>COUNTIF(J:J, "*"&amp;P2&amp;"*")</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Q3">
         <f>COUNTIF(J:J, "*"&amp;Q2&amp;"*")</f>
@@ -1609,15 +1732,15 @@
       </c>
       <c r="R3">
         <f>COUNTIF(K:K, "*"&amp;R2&amp;"*")</f>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="S3">
         <f>COUNTIF(K:K, "*"&amp;S2&amp;"*")</f>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="T3">
         <f>COUNTIF(K:K, "*"&amp;T2&amp;"*")</f>
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -1654,33 +1777,33 @@
       <c r="K4" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <f t="shared" ref="N4:T4" si="0">N3/100</f>
-        <v>0.22</v>
-      </c>
-      <c r="O4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="O4" s="1">
         <f t="shared" si="0"/>
-        <v>0.81</v>
-      </c>
-      <c r="P4" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="P4" s="1">
         <f t="shared" si="0"/>
-        <v>0.16</v>
-      </c>
-      <c r="Q4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q4" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <f t="shared" si="0"/>
-        <v>0.46</v>
-      </c>
-      <c r="S4" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="S4" s="1">
         <f t="shared" si="0"/>
-        <v>0.52</v>
-      </c>
-      <c r="T4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="T4" s="1">
         <f t="shared" si="0"/>
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -4912,38 +5035,38 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
+    <row r="100" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="2">
         <v>901</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D100" s="3" t="s">
+      <c r="C100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="2">
         <v>10510</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="2">
         <v>170</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="2">
         <v>9</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="2">
         <v>24</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="J100" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="K100" s="2" t="s">
         <v>19</v>
       </c>
       <c r="ALV100"/>
@@ -4998,7 +5121,7 @@
       </c>
     </row>
     <row r="102" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="3" t="s">
         <v>298</v>
       </c>
       <c r="B102">
@@ -5039,7 +5162,7 @@
       </c>
     </row>
     <row r="103" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="3" t="s">
         <v>301</v>
       </c>
       <c r="B103">
@@ -5074,7 +5197,7 @@
       </c>
     </row>
     <row r="104" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="3" t="s">
         <v>302</v>
       </c>
       <c r="B104">
@@ -5112,7 +5235,7 @@
       </c>
     </row>
     <row r="105" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="3" t="s">
         <v>304</v>
       </c>
       <c r="B105">
@@ -5153,7 +5276,7 @@
       </c>
     </row>
     <row r="106" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="3" t="s">
         <v>307</v>
       </c>
       <c r="B106">
@@ -5194,7 +5317,7 @@
       </c>
     </row>
     <row r="107" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="3" t="s">
         <v>310</v>
       </c>
       <c r="B107">
@@ -5232,7 +5355,7 @@
       </c>
     </row>
     <row r="108" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="3" t="s">
         <v>312</v>
       </c>
       <c r="B108">
@@ -5270,7 +5393,7 @@
       </c>
     </row>
     <row r="109" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="3" t="s">
         <v>314</v>
       </c>
       <c r="B109">
@@ -5311,7 +5434,7 @@
       </c>
     </row>
     <row r="110" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="3" t="s">
         <v>317</v>
       </c>
       <c r="B110">
@@ -5349,7 +5472,7 @@
       </c>
     </row>
     <row r="111" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="3" t="s">
         <v>319</v>
       </c>
       <c r="B111">
@@ -5390,7 +5513,7 @@
       </c>
     </row>
     <row r="112" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
+      <c r="A112" s="3" t="s">
         <v>322</v>
       </c>
       <c r="B112">
@@ -5428,7 +5551,7 @@
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="3" t="s">
         <v>324</v>
       </c>
       <c r="B113">
@@ -5469,7 +5592,7 @@
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="3" t="s">
         <v>327</v>
       </c>
       <c r="B114">
@@ -5510,7 +5633,7 @@
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B115">
@@ -5551,7 +5674,7 @@
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
+      <c r="A116" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B116">
@@ -5589,6 +5712,606 @@
       </c>
       <c r="M116" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B117">
+        <v>162</v>
+      </c>
+      <c r="C117" t="s">
+        <v>16</v>
+      </c>
+      <c r="F117">
+        <v>27366</v>
+      </c>
+      <c r="G117">
+        <v>252</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>10</v>
+      </c>
+      <c r="J117" t="s">
+        <v>18</v>
+      </c>
+      <c r="K117" t="s">
+        <v>19</v>
+      </c>
+      <c r="L117" t="s">
+        <v>21</v>
+      </c>
+      <c r="M117" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B118">
+        <v>330</v>
+      </c>
+      <c r="C118" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" t="s">
+        <v>338</v>
+      </c>
+      <c r="E118" t="s">
+        <v>339</v>
+      </c>
+      <c r="F118">
+        <v>7347</v>
+      </c>
+      <c r="G118">
+        <v>59</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>5</v>
+      </c>
+      <c r="J118" t="s">
+        <v>18</v>
+      </c>
+      <c r="K118" t="s">
+        <v>23</v>
+      </c>
+      <c r="L118" t="s">
+        <v>21</v>
+      </c>
+      <c r="M118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B119">
+        <v>257</v>
+      </c>
+      <c r="C119" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" t="s">
+        <v>341</v>
+      </c>
+      <c r="E119" t="s">
+        <v>342</v>
+      </c>
+      <c r="F119">
+        <v>14726</v>
+      </c>
+      <c r="G119">
+        <v>115</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119" t="s">
+        <v>21</v>
+      </c>
+      <c r="K119" t="s">
+        <v>24</v>
+      </c>
+      <c r="L119" t="s">
+        <v>18</v>
+      </c>
+      <c r="M119" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B120">
+        <v>471</v>
+      </c>
+      <c r="C120" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" t="s">
+        <v>344</v>
+      </c>
+      <c r="E120" t="s">
+        <v>345</v>
+      </c>
+      <c r="F120">
+        <v>7402</v>
+      </c>
+      <c r="G120">
+        <v>14</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>4</v>
+      </c>
+      <c r="J120" t="s">
+        <v>21</v>
+      </c>
+      <c r="K120" t="s">
+        <v>280</v>
+      </c>
+      <c r="L120" t="s">
+        <v>21</v>
+      </c>
+      <c r="M120" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B121">
+        <v>245</v>
+      </c>
+      <c r="C121" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" t="s">
+        <v>347</v>
+      </c>
+      <c r="E121" t="s">
+        <v>348</v>
+      </c>
+      <c r="F121">
+        <v>28311</v>
+      </c>
+      <c r="G121">
+        <v>274</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>48</v>
+      </c>
+      <c r="J121" t="s">
+        <v>21</v>
+      </c>
+      <c r="K121" t="s">
+        <v>24</v>
+      </c>
+      <c r="L121" t="s">
+        <v>18</v>
+      </c>
+      <c r="M121" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B122">
+        <v>422</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" t="s">
+        <v>350</v>
+      </c>
+      <c r="E122" t="s">
+        <v>351</v>
+      </c>
+      <c r="F122">
+        <v>34594</v>
+      </c>
+      <c r="G122">
+        <v>329</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>12</v>
+      </c>
+      <c r="J122" t="s">
+        <v>20</v>
+      </c>
+      <c r="K122" t="s">
+        <v>19</v>
+      </c>
+      <c r="L122" t="s">
+        <v>20</v>
+      </c>
+      <c r="M122" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B123">
+        <v>4032</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" t="s">
+        <v>353</v>
+      </c>
+      <c r="E123" t="s">
+        <v>354</v>
+      </c>
+      <c r="F123">
+        <v>96311</v>
+      </c>
+      <c r="G123">
+        <v>1587</v>
+      </c>
+      <c r="H123">
+        <v>19</v>
+      </c>
+      <c r="I123">
+        <v>14949</v>
+      </c>
+      <c r="J123" t="s">
+        <v>18</v>
+      </c>
+      <c r="K123" t="s">
+        <v>24</v>
+      </c>
+      <c r="L123" t="s">
+        <v>18</v>
+      </c>
+      <c r="M123" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B124">
+        <v>286</v>
+      </c>
+      <c r="C124" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" t="s">
+        <v>356</v>
+      </c>
+      <c r="E124" t="s">
+        <v>357</v>
+      </c>
+      <c r="F124">
+        <v>22882</v>
+      </c>
+      <c r="G124">
+        <v>92</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>66</v>
+      </c>
+      <c r="J124" t="s">
+        <v>148</v>
+      </c>
+      <c r="K124" t="s">
+        <v>19</v>
+      </c>
+      <c r="L124" t="s">
+        <v>20</v>
+      </c>
+      <c r="M124" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B125">
+        <v>861</v>
+      </c>
+      <c r="C125" t="s">
+        <v>16</v>
+      </c>
+      <c r="E125" t="s">
+        <v>359</v>
+      </c>
+      <c r="F125">
+        <v>12385</v>
+      </c>
+      <c r="G125">
+        <v>97</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>44</v>
+      </c>
+      <c r="J125" t="s">
+        <v>20</v>
+      </c>
+      <c r="K125" t="s">
+        <v>19</v>
+      </c>
+      <c r="L125" t="s">
+        <v>20</v>
+      </c>
+      <c r="M125" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B126">
+        <v>279</v>
+      </c>
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+      <c r="E126" t="s">
+        <v>361</v>
+      </c>
+      <c r="F126">
+        <v>6902</v>
+      </c>
+      <c r="G126">
+        <v>78</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>193</v>
+      </c>
+      <c r="J126" t="s">
+        <v>376</v>
+      </c>
+      <c r="K126" t="s">
+        <v>19</v>
+      </c>
+      <c r="L126" t="s">
+        <v>18</v>
+      </c>
+      <c r="M126" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B127">
+        <v>327</v>
+      </c>
+      <c r="C127" t="s">
+        <v>16</v>
+      </c>
+      <c r="E127" t="s">
+        <v>363</v>
+      </c>
+      <c r="F127">
+        <v>6168</v>
+      </c>
+      <c r="G127">
+        <v>40</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>3</v>
+      </c>
+      <c r="J127" t="s">
+        <v>18</v>
+      </c>
+      <c r="K127" t="s">
+        <v>23</v>
+      </c>
+      <c r="L127" t="s">
+        <v>21</v>
+      </c>
+      <c r="M127" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B128">
+        <v>1471</v>
+      </c>
+      <c r="C128" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
+        <v>365</v>
+      </c>
+      <c r="E128" t="s">
+        <v>366</v>
+      </c>
+      <c r="F128">
+        <v>22540</v>
+      </c>
+      <c r="G128">
+        <v>146</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>33</v>
+      </c>
+      <c r="J128" t="s">
+        <v>18</v>
+      </c>
+      <c r="K128" t="s">
+        <v>19</v>
+      </c>
+      <c r="L128" t="s">
+        <v>21</v>
+      </c>
+      <c r="M128" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B129">
+        <v>500</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" t="s">
+        <v>368</v>
+      </c>
+      <c r="E129" t="s">
+        <v>369</v>
+      </c>
+      <c r="F129">
+        <v>14618</v>
+      </c>
+      <c r="G129">
+        <v>200</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>6</v>
+      </c>
+      <c r="J129" t="s">
+        <v>18</v>
+      </c>
+      <c r="K129" t="s">
+        <v>23</v>
+      </c>
+      <c r="L129" t="s">
+        <v>18</v>
+      </c>
+      <c r="M129" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B130">
+        <v>4474</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" t="s">
+        <v>371</v>
+      </c>
+      <c r="E130" t="s">
+        <v>372</v>
+      </c>
+      <c r="F130">
+        <v>375129</v>
+      </c>
+      <c r="G130">
+        <v>3131</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>35</v>
+      </c>
+      <c r="J130" t="s">
+        <v>18</v>
+      </c>
+      <c r="K130" t="s">
+        <v>19</v>
+      </c>
+      <c r="L130" t="s">
+        <v>18</v>
+      </c>
+      <c r="M130" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B131">
+        <v>221</v>
+      </c>
+      <c r="C131" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" t="s">
+        <v>374</v>
+      </c>
+      <c r="E131" t="s">
+        <v>375</v>
+      </c>
+      <c r="F131">
+        <v>22653</v>
+      </c>
+      <c r="G131">
+        <v>100</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>28</v>
+      </c>
+      <c r="J131" t="s">
+        <v>21</v>
+      </c>
+      <c r="K131" t="s">
+        <v>24</v>
+      </c>
+      <c r="L131" t="s">
+        <v>148</v>
+      </c>
+      <c r="M131" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -5612,6 +6335,21 @@
     <hyperlink ref="A114" r:id="rId13" xr:uid="{111E205A-6FEA-4274-ABCE-7EA64B449554}"/>
     <hyperlink ref="A115" r:id="rId14" xr:uid="{EC136369-C93F-4579-9368-5607D1D19639}"/>
     <hyperlink ref="A116" r:id="rId15" xr:uid="{F6DAA306-2575-4095-B428-C81B15965E81}"/>
+    <hyperlink ref="A117" r:id="rId16" xr:uid="{F5B08C98-EAA1-4923-AA32-5F795E86E5AD}"/>
+    <hyperlink ref="A118" r:id="rId17" xr:uid="{A483A1C3-191F-4357-BF6A-C4BDA386CD60}"/>
+    <hyperlink ref="A119" r:id="rId18" xr:uid="{820FBDE5-4973-4EC0-8460-C4D4FA3F03AC}"/>
+    <hyperlink ref="A120" r:id="rId19" xr:uid="{CD2832FC-13F4-4B74-B7F1-9208F6FB5893}"/>
+    <hyperlink ref="A121" r:id="rId20" xr:uid="{1F040FC6-C180-46DF-BBFB-15C7CD0CE248}"/>
+    <hyperlink ref="A122" r:id="rId21" xr:uid="{73023670-C966-45A5-A88C-BDE66C22E31A}"/>
+    <hyperlink ref="A123" r:id="rId22" xr:uid="{E7909988-9FA1-41A1-A80E-87C2BA2B5056}"/>
+    <hyperlink ref="A124" r:id="rId23" xr:uid="{C60FE6ED-043E-4034-ACA0-44AC10366079}"/>
+    <hyperlink ref="A125" r:id="rId24" xr:uid="{4805E4D9-D135-4BA8-B899-9925D6204896}"/>
+    <hyperlink ref="A126" r:id="rId25" xr:uid="{21A67361-311A-4191-ACB9-D10251F332E9}"/>
+    <hyperlink ref="A127" r:id="rId26" xr:uid="{A776CE6C-EC16-4700-A62D-D846A12C1B10}"/>
+    <hyperlink ref="A128" r:id="rId27" xr:uid="{4865879A-1C3D-4067-91D2-C0F530C63F92}"/>
+    <hyperlink ref="A129" r:id="rId28" xr:uid="{DE118CB6-F21E-42A2-B872-D6BC8CE3EFAF}"/>
+    <hyperlink ref="A130" r:id="rId29" xr:uid="{E291CD9D-C495-432E-8AFB-975B0EE65555}"/>
+    <hyperlink ref="A131" r:id="rId30" xr:uid="{3DE1EB34-2770-4DCE-AB53-86E5468D07FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/labeled_dataset_repos.xlsx
+++ b/data/labeled_dataset_repos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\const\Documents\Bachelorarbeit\bachelor_repo\github-classifier\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78035A6-DE22-4F88-ABE0-8482138A67E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE364703-16CC-4053-821C-75F6ADE545ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21750" windowHeight="15480" xr2:uid="{22739A3E-992F-4298-AA9B-BA6D95F139BF}"/>
+    <workbookView xWindow="810" yWindow="0" windowWidth="21750" windowHeight="15480" xr2:uid="{22739A3E-992F-4298-AA9B-BA6D95F139BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="450">
   <si>
     <t>html_url</t>
   </si>
@@ -71,12 +71,6 @@
     <t>final relation</t>
   </si>
   <si>
-    <t>Constanze type</t>
-  </si>
-  <si>
-    <t>Constanze relation</t>
-  </si>
-  <si>
     <t>System Type</t>
   </si>
   <si>
@@ -296,9 +290,6 @@
     <t>[ICCV 2023] Official PyTorch implementation of the paper "InterDiff: Generating 3D Human-Object Interactions with Physics-Informed Diffusion"</t>
   </si>
   <si>
-    <t>Applied, ML-Technology</t>
-  </si>
-  <si>
     <t>https://github.com/facebookresearch/UnsupervisedDecomposition</t>
   </si>
   <si>
@@ -314,9 +305,6 @@
     <t>An optimized deep prompt tuning strategy comparable to fine-tuning across scales and tasks</t>
   </si>
   <si>
-    <t>Applied, ML-Tools</t>
-  </si>
-  <si>
     <t>https://github.com/mosaicml/llm-foundry</t>
   </si>
   <si>
@@ -347,9 +335,6 @@
     <t>Hackable implementation of state-of-the-art open-source LLMs based on nanoGPT. Supports flash attention, 4-bit and 8-bit quantization, LoRA and LLaMA-Adapter fine-tuning, pre-training. Apache 2.0-licensed.</t>
   </si>
   <si>
-    <t>ML-Technology, ML-Tools</t>
-  </si>
-  <si>
     <t>https://github.com/boston-dynamics/spot-sdk</t>
   </si>
   <si>
@@ -704,9 +689,6 @@
     <t>A neuroscience library for Python, intended to complement the existing nibabel library.</t>
   </si>
   <si>
-    <t>ML-Technology, Applied</t>
-  </si>
-  <si>
     <t>https://github.com/kemaloksuz/aLRPLoss</t>
   </si>
   <si>
@@ -878,9 +860,6 @@
     <t>Video and Image Analytics for Multiple Environments</t>
   </si>
   <si>
-    <t>ML-Tools, Applied</t>
-  </si>
-  <si>
     <t>https://github.com/zphang/bert_on_stilts</t>
   </si>
   <si>
@@ -1167,13 +1146,253 @@
   </si>
   <si>
     <t>Plugin</t>
+  </si>
+  <si>
+    <t>https://github.com/yangyangyang127/PointCLIP_V2</t>
+  </si>
+  <si>
+    <t>[ICCV 2023] PointCLIP V2: Prompting CLIP and GPT for Powerful 3D Open-world Learning</t>
+  </si>
+  <si>
+    <t>https://github.com/ZJU-OpenKS/OpenKS</t>
+  </si>
+  <si>
+    <t>distributed-training|kgqa|knowledge-computing</t>
+  </si>
+  <si>
+    <t>OpenKS - ���������������������������������������������������������������������������������������������������������������������������������������</t>
+  </si>
+  <si>
+    <t>https://github.com/huggingface/optimum</t>
+  </si>
+  <si>
+    <t>graphcore|habana|inference|intel|onnx|onnxruntime|optimization|pytorch|quantization|tflite|training|transformers</t>
+  </si>
+  <si>
+    <t>������������ Accelerate training and inference of ������������ Transformers and ������������ Diffusers with easy to use hardware optimization tools</t>
+  </si>
+  <si>
+    <t>https://github.com/qurator-spk/eynollah</t>
+  </si>
+  <si>
+    <t>document-layout-analysis|ocr|qurator|segmentation|textline-detection</t>
+  </si>
+  <si>
+    <t>Document Layout Analysis</t>
+  </si>
+  <si>
+    <t>https://github.com/BGU-CS-VIL/DeepDPM</t>
+  </si>
+  <si>
+    <t>"DeepDPM: Deep Clustering With An Unknown Number of Clusters" [Ronen, Finder, and Freifeld, CVPR 2022]</t>
+  </si>
+  <si>
+    <t>https://github.com/Voice-Lab/VoiceLab</t>
+  </si>
+  <si>
+    <t>acoustic-analysis|open-science|python|python3|speech-processing|voice-analysis|voice-manipulation</t>
+  </si>
+  <si>
+    <t>Automated Reproducible Acoustical Analysis</t>
+  </si>
+  <si>
+    <t>https://github.com/genixpro/hypermax</t>
+  </si>
+  <si>
+    <t>Better, faster hyper-parameter optimization</t>
+  </si>
+  <si>
+    <t>https://github.com/CrawlScript/tf_geometric</t>
+  </si>
+  <si>
+    <t>Efficient and Friendly Graph Neural Network Library for TensorFlow 1.x and 2.x</t>
+  </si>
+  <si>
+    <t>https://github.com/EdinburghNLP/nematus</t>
+  </si>
+  <si>
+    <t>machine-translation|mt|neural-machine-translation|nmt|sequence-to-sequence</t>
+  </si>
+  <si>
+    <t>Open-Source Neural Machine Translation in Tensorflow</t>
+  </si>
+  <si>
+    <t>https://github.com/sp-nitech/diffsptk</t>
+  </si>
+  <si>
+    <t>cepstrum|ddsp|deep-learning|digital-signal-processing|dsp|gmm|lpc|mfcc|pqmf|python|pytorch|signal-processing|sptk</t>
+  </si>
+  <si>
+    <t>A differentiable version of SPTK</t>
+  </si>
+  <si>
+    <t>https://github.com/tournesol-app/tournesol</t>
+  </si>
+  <si>
+    <t>ai-ethics|bradley-terry-model|dataset|django|django-rest-framework|golden-ratio-optimization|preference-aggregation|preference-learning|python|reactjs|recommendation-engine|social-choice|youtube</t>
+  </si>
+  <si>
+    <t>Free and open source code of the https://tournesol.app platform. Meet the community on Discord https://discord.gg/WvcSG55Bf3</t>
+  </si>
+  <si>
+    <t>https://github.com/NervanaSystems/ngraph-python</t>
+  </si>
+  <si>
+    <t>Original Python version of Intel������������������ Nervana���������������</t>
+  </si>
+  <si>
+    <t>https://github.com/LeeKeyu/sarl_star</t>
+  </si>
+  <si>
+    <t>crowd|dqn|human-aware|mobile-robot-navigation|pedestrian-detection|reinforcement-learning</t>
+  </si>
+  <si>
+    <t>SARL*: Deep RL based human-aware navigation for mobile robot in crowded indoor environments implemented in ROS.</t>
+  </si>
+  <si>
+    <t>https://github.com/NVlabs/CenterPose</t>
+  </si>
+  <si>
+    <t>deep-learning|object-pose-estimation|object-pose-tracking|pytorch|rgb</t>
+  </si>
+  <si>
+    <t>Single-Stage Keypoint-based Category-level Object Pose Estimation from an RGB Image (ICRA 2022)</t>
+  </si>
+  <si>
+    <t>https://github.com/nmichlo/disent</t>
+  </si>
+  <si>
+    <t>autoencoders|configurable|datasets|disentangled-representations|disentanglement|metric-learning|metrics|python|python3|pytorch|pytorch-lightning|representation-learning|vae</t>
+  </si>
+  <si>
+    <t>������������ Modular VAE disentanglement framework for python built with PyTorch Lightning ��������� Including metrics and datasets ��������� With strongly supervised, weakly supervised and unsupervised methods ��������� Easily configured and run with Hydra config ��������� Inspired by disentanglement_lib</t>
+  </si>
+  <si>
+    <t>https://github.com/felixfuyihui/AISHELL-4</t>
+  </si>
+  <si>
+    <t>Conceptual Applied</t>
+  </si>
+  <si>
+    <t>https://github.com/Westlake-AI/openmixup</t>
+  </si>
+  <si>
+    <t>automix|awesome-list|awesome-mim|awesome-mixup|benchmark|contrastive-learning|data-augmentation|data-generation|deep-learning|image-classifcation|imagenet|machine-learning|masked-image-modeling|mixup|pytorch|self-supervised-learning|semi-supervised-learning|vision-transformer</t>
+  </si>
+  <si>
+    <t>CAIRI Supervised, Semi- and Self-Supervised Visual Representation Learning Toolbox and Benchmark</t>
+  </si>
+  <si>
+    <t>https://github.com/chaoss/augur</t>
+  </si>
+  <si>
+    <t>chaoss|data-collection|data-modeling|data-visualization|defined-metrics|facade|git|github|hacktoberfest|hacktoberfest2020|health|linux|linux-foundation|metrics|open-source|opensource|python-library|research|sustainability|unix</t>
+  </si>
+  <si>
+    <t>Python library and web service for Open Source Software Health and Sustainability metrics &amp; data collection. You can find our documentation and new contributor information easily here: https://chaoss.github.io/augur/ and learn more about Augur at our website https://augurlabs.io</t>
+  </si>
+  <si>
+    <t>Business Focused Applied</t>
+  </si>
+  <si>
+    <t>https://github.com/harubaru/discord-stable-diffusion</t>
+  </si>
+  <si>
+    <t>A neat Discord bot to run Stable Diffusion locally</t>
+  </si>
+  <si>
+    <t>https://github.com/xyzforever/BEVT</t>
+  </si>
+  <si>
+    <t>action-recognition|bert|deep-learning|foundation-models|masked-autoencoder|pytorch|self-supervised-learning|video-representation-learning|video-understanding</t>
+  </si>
+  <si>
+    <t>PyTorch implementation of BEVT (CVPR 2022) https://arxiv.org/abs/2112.01529</t>
+  </si>
+  <si>
+    <t>https://github.com/baal-org/baal</t>
+  </si>
+  <si>
+    <t>active-learning|bayesian-active-learning|deep-learning|machine-learning|python|pytorch</t>
+  </si>
+  <si>
+    <t>Library to enable Bayesian active learning in your research or labeling work.</t>
+  </si>
+  <si>
+    <t>https://github.com/Qiskit/qiskit-ibmq-provider</t>
+  </si>
+  <si>
+    <t>Qiskit Provider for accessing the quantum devices and simulators at IBM Quantum.</t>
+  </si>
+  <si>
+    <t>https://github.com/THUDM/Chinese-Transformer-XL</t>
+  </si>
+  <si>
+    <t>https://github.com/sarafridov/K-Planes</t>
+  </si>
+  <si>
+    <t>https://github.com/NifTK/NiftyNet</t>
+  </si>
+  <si>
+    <t>autoencoder|convolutional-neural-networks|deep-learning|deep-neural-networks|distributed|gan|image-guided-therapy|medical-image-analysis|medical-image-computing|medical-image-processing|medical-images|medical-imaging|ml|neural-network|pip|python|python2|python3|segmentation|tensorflow</t>
+  </si>
+  <si>
+    <t>[unmaintained] An open-source convolutional neural networks platform for research in medical image analysis and image-guided therapy</t>
+  </si>
+  <si>
+    <t>https://github.com/rwth-i6/returnn-experiments</t>
+  </si>
+  <si>
+    <t>s with RETURNN</t>
+  </si>
+  <si>
+    <t>https://github.com/dvlab-research/VoxelNeXt</t>
+  </si>
+  <si>
+    <t>3d-multi-object-tracking|3d-object-detection|argoverse|autonomous-driving|lidar|nuscenes|waymo-open-dataset</t>
+  </si>
+  <si>
+    <t>VoxelNeXt: Fully Sparse VoxelNet for 3D Object Detection and Tracking (CVPR 2023)</t>
+  </si>
+  <si>
+    <t>https://github.com/mzhaoshuai/CenterCLIP</t>
+  </si>
+  <si>
+    <t>[SIGIR 2022] CenterCLIP: Token Clustering for Efficient Text-Video Retrieval. Also, a text-video retrieval toolbox based on CLIP + fast pyav video decoding.</t>
+  </si>
+  <si>
+    <t>https://github.com/TissueImageAnalytics/tiatoolbox</t>
+  </si>
+  <si>
+    <t>cell-classification|cell-segmentation|computational-pathology|deep-learning|digital-pathology|histopathology|image-analysis|machine-learning|medical-image-analysis|python|stain-normalization|tissue-analysis|tissue-segmentation|whole-slide-imaging</t>
+  </si>
+  <si>
+    <t>Computational Pathology Toolbox developed by TIA Centre, University of Warwick.</t>
+  </si>
+  <si>
+    <t>https://github.com/HighCWu/ControlLoRA</t>
+  </si>
+  <si>
+    <t>ControlLoRA: A Lightweight Neural Network To Control Stable Diffusion Spatial Information</t>
+  </si>
+  <si>
+    <t>Framework, Library</t>
+  </si>
+  <si>
+    <t>Conceptual Applied, ML-Tools</t>
+  </si>
+  <si>
+    <t>Business Focused Applied, ML-Tools</t>
+  </si>
+  <si>
+    <t>Business Focused Applied, Conceptual Applied</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1189,8 +1408,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF467886"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1199,8 +1431,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6D6D"/>
-        <bgColor rgb="FFFF6600"/>
+        <fgColor rgb="FFDDE8CB"/>
+        <bgColor rgb="FFFFDBB6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFA6"/>
+        <bgColor rgb="FFFFFFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFD7"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1213,22 +1457,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2" xr:uid="{F3D557F5-8969-4982-B7D7-9F5C82C65E24}"/>
+    <cellStyle name="Untitled1" xfId="3" xr:uid="{7FCAFC33-D887-4D92-8ED1-AA6D26DA2138}"/>
+    <cellStyle name="Untitled2" xfId="4" xr:uid="{69E80281-D260-4CB7-A1F2-D67387EC9A43}"/>
+    <cellStyle name="Untitled3" xfId="5" xr:uid="{D727CDAF-25FA-43FD-91B5-37C323B8B333}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1560,17 +1814,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65A8AEA-A0A5-4449-B988-53D5AD057A76}">
-  <dimension ref="A1:AMJ131"/>
+  <dimension ref="A1:T161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A132" sqref="A132"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L166" sqref="L166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="26.85546875" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" customWidth="1"/>
+    <col min="11" max="11" width="32.28515625" customWidth="1"/>
     <col min="12" max="12" width="19.140625" customWidth="1"/>
     <col min="13" max="13" width="18.7109375" customWidth="1"/>
   </cols>
@@ -1609,36 +1863,30 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>6968</v>
@@ -1653,48 +1901,48 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>418</v>
+      </c>
+      <c r="N2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>20</v>
       </c>
-      <c r="O2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" t="s">
         <v>22</v>
-      </c>
-      <c r="R2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>981</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3">
         <v>14748</v>
@@ -1709,22 +1957,22 @@
         <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>411</v>
       </c>
       <c r="N3">
         <f>COUNTIF(J:J, "*"&amp;N2&amp;"*")</f>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="O3">
         <f>COUNTIF(J:J, "*"&amp;O2&amp;"*")</f>
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P3">
         <f>COUNTIF(J:J, "*"&amp;P2&amp;"*")</f>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Q3">
         <f>COUNTIF(J:J, "*"&amp;Q2&amp;"*")</f>
@@ -1732,32 +1980,32 @@
       </c>
       <c r="R3">
         <f>COUNTIF(K:K, "*"&amp;R2&amp;"*")</f>
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <f>COUNTIF(K:K, "*"&amp;S2&amp;"*")</f>
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="T3">
         <f>COUNTIF(K:K, "*"&amp;T2&amp;"*")</f>
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>10394</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4">
         <v>315754</v>
@@ -1772,22 +2020,22 @@
         <v>309</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>418</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" ref="N4:T4" si="0">N3/100</f>
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="0"/>
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="0"/>
@@ -1795,32 +2043,32 @@
       </c>
       <c r="R4" s="1">
         <f t="shared" si="0"/>
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>1.27</v>
       </c>
       <c r="T4" s="1">
         <f t="shared" si="0"/>
-        <v>0.32</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>484</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5">
         <v>11163</v>
@@ -1835,27 +2083,27 @@
         <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>5361</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>11405</v>
@@ -1870,27 +2118,27 @@
         <v>70</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>5854</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F7">
         <v>43817</v>
@@ -1905,21 +2153,21 @@
         <v>157</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <v>157</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8">
         <v>12741</v>
@@ -1934,27 +2182,27 @@
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <v>242</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F9">
         <v>6735</v>
@@ -1969,27 +2217,27 @@
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>274</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F10">
         <v>7067</v>
@@ -2004,27 +2252,27 @@
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>422</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F11">
         <v>10534</v>
@@ -2039,27 +2287,27 @@
         <v>142</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12">
         <v>489</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F12">
         <v>7268</v>
@@ -2074,24 +2322,24 @@
         <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>183</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F13">
         <v>5043</v>
@@ -2106,24 +2354,24 @@
         <v>7</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K13" t="s">
-        <v>19</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F14">
         <v>48647</v>
@@ -2138,24 +2386,24 @@
         <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K14" t="s">
-        <v>23</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>248</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F15">
         <v>5740</v>
@@ -2170,24 +2418,24 @@
         <v>5</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K15" t="s">
-        <v>24</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16">
         <v>1231</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F16">
         <v>114580</v>
@@ -2202,27 +2450,27 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B17">
         <v>458</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F17">
         <v>56562</v>
@@ -2237,24 +2485,24 @@
         <v>179</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K17" t="s">
-        <v>19</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B18">
         <v>671</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F18">
         <v>145832</v>
@@ -2269,27 +2517,27 @@
         <v>21</v>
       </c>
       <c r="J18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K18" t="s">
-        <v>23</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B19">
         <v>1456</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F19">
         <v>24449</v>
@@ -2304,24 +2552,24 @@
         <v>15</v>
       </c>
       <c r="J19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B20">
         <v>212</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F20">
         <v>5883</v>
@@ -2336,27 +2584,27 @@
         <v>9</v>
       </c>
       <c r="J20" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="K20" t="s">
-        <v>24</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B21">
         <v>230</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F21">
         <v>159116</v>
@@ -2371,27 +2619,27 @@
         <v>50</v>
       </c>
       <c r="J21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K21" t="s">
-        <v>23</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B22">
         <v>148</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F22">
         <v>6236</v>
@@ -2406,27 +2654,27 @@
         <v>7</v>
       </c>
       <c r="J22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K22" t="s">
-        <v>19</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B23">
         <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F23">
         <v>6281</v>
@@ -2441,27 +2689,27 @@
         <v>79</v>
       </c>
       <c r="J23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B24">
         <v>219</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F24">
         <v>6367</v>
@@ -2476,27 +2724,27 @@
         <v>18</v>
       </c>
       <c r="J24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K24" t="s">
-        <v>19</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B25">
         <v>130</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F25">
         <v>6280</v>
@@ -2511,24 +2759,24 @@
         <v>7</v>
       </c>
       <c r="J25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K25" t="s">
-        <v>86</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B26">
         <v>118</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F26">
         <v>23345</v>
@@ -2543,27 +2791,27 @@
         <v>13</v>
       </c>
       <c r="J26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K26" t="s">
-        <v>86</v>
+        <v>411</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B27">
         <v>1668</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F27">
         <v>14464</v>
@@ -2578,27 +2826,27 @@
         <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K27" t="s">
-        <v>92</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B28">
         <v>3128</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F28">
         <v>19160</v>
@@ -2613,24 +2861,24 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="K28" t="s">
-        <v>24</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B29">
         <v>562</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F29">
         <v>6810</v>
@@ -2645,27 +2893,27 @@
         <v>11</v>
       </c>
       <c r="J29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K29" t="s">
-        <v>23</v>
+        <v>418</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B30">
         <v>1323</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F30">
         <v>87334</v>
@@ -2680,24 +2928,24 @@
         <v>67</v>
       </c>
       <c r="J30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K30" t="s">
-        <v>23</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B31">
         <v>3441</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F31">
         <v>7998</v>
@@ -2712,24 +2960,24 @@
         <v>7</v>
       </c>
       <c r="J31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K31" t="s">
-        <v>103</v>
+        <v>447</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B32">
         <v>2137</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F32">
         <v>49988</v>
@@ -2744,27 +2992,27 @@
         <v>564</v>
       </c>
       <c r="J32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K32" t="s">
-        <v>19</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B33">
         <v>172</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F33">
         <v>6232</v>
@@ -2779,27 +3027,27 @@
         <v>63</v>
       </c>
       <c r="J33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K33" t="s">
-        <v>19</v>
+        <v>411</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B34">
         <v>131</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F34">
         <v>6206</v>
@@ -2814,27 +3062,27 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K34" t="s">
-        <v>19</v>
+        <v>418</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B35">
         <v>223</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F35">
         <v>83289</v>
@@ -2849,27 +3097,27 @@
         <v>24</v>
       </c>
       <c r="J35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K35" t="s">
-        <v>23</v>
+        <v>449</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B36">
         <v>350</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E36" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F36">
         <v>44279</v>
@@ -2884,27 +3132,27 @@
         <v>17</v>
       </c>
       <c r="J36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K36" t="s">
-        <v>23</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B37">
         <v>1694</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F37">
         <v>108144</v>
@@ -2919,24 +3167,24 @@
         <v>183</v>
       </c>
       <c r="J37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B38">
         <v>201</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F38">
         <v>5808</v>
@@ -2951,27 +3199,27 @@
         <v>4</v>
       </c>
       <c r="J38" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K38" t="s">
-        <v>19</v>
+        <v>418</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B39">
         <v>1112</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F39">
         <v>8328</v>
@@ -2986,27 +3234,27 @@
         <v>80</v>
       </c>
       <c r="J39" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B40">
         <v>192</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E40" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F40">
         <v>10166</v>
@@ -3021,24 +3269,24 @@
         <v>25</v>
       </c>
       <c r="J40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B41">
         <v>176</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F41">
         <v>40267</v>
@@ -3053,27 +3301,27 @@
         <v>10</v>
       </c>
       <c r="J41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K41" t="s">
-        <v>23</v>
+        <v>411</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B42">
         <v>2244</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E42" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F42">
         <v>55321</v>
@@ -3088,27 +3336,27 @@
         <v>65</v>
       </c>
       <c r="J42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K42" t="s">
-        <v>23</v>
+        <v>448</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B43">
         <v>374</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E43" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F43">
         <v>23750</v>
@@ -3123,24 +3371,24 @@
         <v>20</v>
       </c>
       <c r="J43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K43" t="s">
-        <v>23</v>
+        <v>411</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B44">
         <v>268</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F44">
         <v>13070</v>
@@ -3155,27 +3403,27 @@
         <v>33</v>
       </c>
       <c r="J44" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K44" t="s">
-        <v>19</v>
+        <v>418</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B45">
         <v>1808</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E45" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F45">
         <v>8121</v>
@@ -3193,24 +3441,24 @@
         <v>18</v>
       </c>
       <c r="K45" t="s">
-        <v>23</v>
+        <v>418</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B46">
         <v>923</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E46" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F46">
         <v>13258</v>
@@ -3225,27 +3473,27 @@
         <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K46" t="s">
-        <v>19</v>
+        <v>411</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B47">
         <v>2713</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E47" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F47">
         <v>5855</v>
@@ -3260,24 +3508,24 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K47" t="s">
-        <v>19</v>
+        <v>449</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B48">
         <v>1179</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E48" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F48">
         <v>5591</v>
@@ -3292,27 +3540,27 @@
         <v>4</v>
       </c>
       <c r="J48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K48" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B49">
         <v>195</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E49" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F49">
         <v>6113</v>
@@ -3327,24 +3575,24 @@
         <v>10</v>
       </c>
       <c r="J49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K49" t="s">
-        <v>19</v>
+        <v>418</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B50">
         <v>142</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E50" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F50">
         <v>10897</v>
@@ -3359,27 +3607,27 @@
         <v>19</v>
       </c>
       <c r="J50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B51">
         <v>147</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E51" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F51">
         <v>9005</v>
@@ -3394,27 +3642,27 @@
         <v>18</v>
       </c>
       <c r="J51" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K51" t="s">
-        <v>23</v>
+        <v>411</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B52">
         <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E52" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F52">
         <v>101618</v>
@@ -3429,27 +3677,27 @@
         <v>7</v>
       </c>
       <c r="J52" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K52" t="s">
-        <v>23</v>
+        <v>411</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B53">
         <v>806</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E53" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F53">
         <v>12672</v>
@@ -3464,27 +3712,27 @@
         <v>22</v>
       </c>
       <c r="J53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K53" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B54">
         <v>147</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E54" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F54">
         <v>7421</v>
@@ -3499,27 +3747,27 @@
         <v>25</v>
       </c>
       <c r="J54" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K54" t="s">
-        <v>23</v>
+        <v>411</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B55">
         <v>336</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E55" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F55">
         <v>64621</v>
@@ -3534,27 +3782,27 @@
         <v>14</v>
       </c>
       <c r="J55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K55" t="s">
-        <v>19</v>
+        <v>418</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B56">
         <v>878</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E56" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F56">
         <v>34006</v>
@@ -3569,27 +3817,27 @@
         <v>27</v>
       </c>
       <c r="J56" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K56" t="s">
-        <v>23</v>
+        <v>411</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B57">
         <v>405</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E57" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F57">
         <v>41199</v>
@@ -3604,27 +3852,27 @@
         <v>50</v>
       </c>
       <c r="J57" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K57" t="s">
-        <v>23</v>
+        <v>447</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B58">
         <v>444</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E58" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F58">
         <v>81820</v>
@@ -3639,27 +3887,27 @@
         <v>590</v>
       </c>
       <c r="J58" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K58" t="s">
-        <v>24</v>
+        <v>448</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B59">
         <v>558</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E59" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F59">
         <v>6645</v>
@@ -3674,24 +3922,24 @@
         <v>23</v>
       </c>
       <c r="J59" t="s">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="K59" t="s">
-        <v>19</v>
+        <v>418</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B60">
         <v>102</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E60" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F60">
         <v>5965</v>
@@ -3706,27 +3954,27 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K60" t="s">
-        <v>86</v>
+        <v>418</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B61">
         <v>260</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E61" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F61">
         <v>17702</v>
@@ -3741,27 +3989,27 @@
         <v>7</v>
       </c>
       <c r="J61" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K61" t="s">
-        <v>19</v>
+        <v>447</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B62">
         <v>288</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E62" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F62">
         <v>7257</v>
@@ -3776,27 +4024,27 @@
         <v>50</v>
       </c>
       <c r="J62" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K62" t="s">
-        <v>23</v>
+        <v>411</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B63">
         <v>325</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E63" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F63">
         <v>38897</v>
@@ -3811,27 +4059,27 @@
         <v>28</v>
       </c>
       <c r="J63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K63" t="s">
-        <v>19</v>
+        <v>411</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B64">
         <v>197</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E64" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F64">
         <v>7871</v>
@@ -3846,24 +4094,24 @@
         <v>4</v>
       </c>
       <c r="J64" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K64" t="s">
-        <v>19</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B65">
         <v>143</v>
       </c>
       <c r="C65" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E65" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F65">
         <v>5816</v>
@@ -3878,24 +4126,24 @@
         <v>59</v>
       </c>
       <c r="J65" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K65" t="s">
-        <v>19</v>
+        <v>418</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B66">
         <v>522</v>
       </c>
       <c r="C66" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E66" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F66">
         <v>5585</v>
@@ -3910,24 +4158,24 @@
         <v>52</v>
       </c>
       <c r="J66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K66" t="s">
-        <v>23</v>
+        <v>411</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B67">
         <v>226</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E67" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F67">
         <v>34228</v>
@@ -3942,24 +4190,24 @@
         <v>253</v>
       </c>
       <c r="J67" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K67" t="s">
-        <v>23</v>
+        <v>411</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B68">
         <v>108</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E68" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F68">
         <v>26940</v>
@@ -3974,27 +4222,27 @@
         <v>146</v>
       </c>
       <c r="J68" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K68" t="s">
-        <v>19</v>
+        <v>418</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B69">
         <v>104</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E69" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F69">
         <v>5274</v>
@@ -4009,27 +4257,27 @@
         <v>4</v>
       </c>
       <c r="J69" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K69" t="s">
-        <v>23</v>
+        <v>411</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B70">
         <v>165</v>
       </c>
       <c r="C70" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E70" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F70">
         <v>12389</v>
@@ -4044,27 +4292,27 @@
         <v>11</v>
       </c>
       <c r="J70" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K70" t="s">
-        <v>19</v>
+        <v>418</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B71">
         <v>1329</v>
       </c>
       <c r="C71" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E71" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F71">
         <v>15639</v>
@@ -4079,24 +4327,24 @@
         <v>8</v>
       </c>
       <c r="J71" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K71" t="s">
-        <v>19</v>
+        <v>418</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B72">
         <v>1253</v>
       </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E72" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F72">
         <v>5657</v>
@@ -4111,27 +4359,27 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B73">
         <v>8328</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E73" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F73">
         <v>30087</v>
@@ -4146,24 +4394,24 @@
         <v>78</v>
       </c>
       <c r="J73" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K73" t="s">
-        <v>19</v>
+        <v>418</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B74">
         <v>103</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E74" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F74">
         <v>21995</v>
@@ -4178,24 +4426,24 @@
         <v>7</v>
       </c>
       <c r="J74" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="K74" t="s">
-        <v>222</v>
+        <v>418</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B75">
         <v>134</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E75" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F75">
         <v>39833</v>
@@ -4210,27 +4458,27 @@
         <v>14</v>
       </c>
       <c r="J75" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B76">
         <v>241</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E76" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F76">
         <v>7792</v>
@@ -4245,27 +4493,27 @@
         <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K76" t="s">
-        <v>23</v>
+        <v>447</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B77">
         <v>113</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E77" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F77">
         <v>6354</v>
@@ -4280,27 +4528,27 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K77" t="s">
-        <v>19</v>
+        <v>418</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B78">
         <v>467</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E78" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F78">
         <v>12836</v>
@@ -4315,27 +4563,27 @@
         <v>11</v>
       </c>
       <c r="J78" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K78" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B79">
         <v>2569</v>
       </c>
       <c r="C79" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E79" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F79">
         <v>52477</v>
@@ -4350,27 +4598,27 @@
         <v>91</v>
       </c>
       <c r="J79" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B80">
         <v>525</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E80" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F80">
         <v>14241</v>
@@ -4385,27 +4633,27 @@
         <v>112</v>
       </c>
       <c r="J80" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K80" t="s">
-        <v>23</v>
+        <v>411</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B81">
         <v>638</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E81" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F81">
         <v>17272</v>
@@ -4420,24 +4668,24 @@
         <v>8</v>
       </c>
       <c r="J81" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K81" t="s">
-        <v>19</v>
+        <v>418</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B82">
         <v>374</v>
       </c>
       <c r="C82" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E82" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F82">
         <v>8965</v>
@@ -4452,27 +4700,27 @@
         <v>5</v>
       </c>
       <c r="J82" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K82" t="s">
-        <v>19</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B83">
         <v>248</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E83" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F83">
         <v>16920</v>
@@ -4487,24 +4735,24 @@
         <v>25</v>
       </c>
       <c r="J83" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K83" t="s">
-        <v>19</v>
+        <v>411</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B84">
         <v>840</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E84" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F84">
         <v>29749</v>
@@ -4519,27 +4767,27 @@
         <v>43</v>
       </c>
       <c r="J84" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K84" t="s">
-        <v>19</v>
+        <v>449</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B85">
         <v>1074</v>
       </c>
       <c r="C85" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E85" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F85">
         <v>38321</v>
@@ -4554,24 +4802,24 @@
         <v>5</v>
       </c>
       <c r="J85" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K85" t="s">
-        <v>103</v>
+        <v>447</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B86">
         <v>1559</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E86" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F86">
         <v>57324</v>
@@ -4586,27 +4834,27 @@
         <v>219</v>
       </c>
       <c r="J86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K86" t="s">
-        <v>19</v>
+        <v>447</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B87">
         <v>1263</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E87" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F87">
         <v>21245</v>
@@ -4621,27 +4869,27 @@
         <v>25</v>
       </c>
       <c r="J87" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K87" t="s">
-        <v>19</v>
+        <v>418</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B88">
         <v>1490</v>
       </c>
       <c r="C88" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E88" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F88">
         <v>43274</v>
@@ -4656,27 +4904,27 @@
         <v>66</v>
       </c>
       <c r="J88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K88" t="s">
-        <v>103</v>
+        <v>447</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B89">
         <v>124</v>
       </c>
       <c r="C89" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E89" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F89">
         <v>14138</v>
@@ -4691,27 +4939,27 @@
         <v>6</v>
       </c>
       <c r="J89" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K89" t="s">
-        <v>23</v>
+        <v>418</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B90">
         <v>291</v>
       </c>
       <c r="C90" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E90" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F90">
         <v>5911</v>
@@ -4726,24 +4974,24 @@
         <v>17</v>
       </c>
       <c r="J90" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K90" t="s">
-        <v>19</v>
+        <v>418</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B91">
         <v>511</v>
       </c>
       <c r="C91" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E91" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F91">
         <v>10259</v>
@@ -4758,27 +5006,27 @@
         <v>6</v>
       </c>
       <c r="J91" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K91" t="s">
-        <v>23</v>
+        <v>418</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B92">
         <v>641</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E92" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F92">
         <v>24922</v>
@@ -4793,24 +5041,24 @@
         <v>10</v>
       </c>
       <c r="J92" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K92" t="s">
-        <v>19</v>
+        <v>448</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B93">
         <v>129</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E93" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F93">
         <v>5514</v>
@@ -4825,27 +5073,27 @@
         <v>16</v>
       </c>
       <c r="J93" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K93" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B94">
         <v>225</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E94" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F94">
         <v>5542</v>
@@ -4860,27 +5108,27 @@
         <v>27</v>
       </c>
       <c r="J94" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K94" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B95">
         <v>237</v>
       </c>
       <c r="C95" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E95" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F95">
         <v>25792</v>
@@ -4895,24 +5143,24 @@
         <v>116</v>
       </c>
       <c r="J95" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K95" t="s">
-        <v>280</v>
+        <v>448</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B96">
         <v>103</v>
       </c>
       <c r="C96" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E96" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F96">
         <v>12048</v>
@@ -4927,24 +5175,24 @@
         <v>9</v>
       </c>
       <c r="J96" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K96" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1024" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B97">
         <v>114</v>
       </c>
       <c r="C97" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E97" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F97">
         <v>9868</v>
@@ -4959,27 +5207,27 @@
         <v>6</v>
       </c>
       <c r="J97" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K97" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1024" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B98">
         <v>1937</v>
       </c>
       <c r="C98" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E98" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F98">
         <v>22127</v>
@@ -4994,27 +5242,27 @@
         <v>51</v>
       </c>
       <c r="J98" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="K98" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1024" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B99">
         <v>655</v>
       </c>
       <c r="C99" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E99" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F99">
         <v>73765</v>
@@ -5029,77 +5277,62 @@
         <v>16</v>
       </c>
       <c r="J99" t="s">
+        <v>16</v>
+      </c>
+      <c r="K99" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B100" s="6">
+        <v>901</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="F100" s="6">
+        <v>10510</v>
+      </c>
+      <c r="G100" s="6">
+        <v>170</v>
+      </c>
+      <c r="H100" s="6">
+        <v>9</v>
+      </c>
+      <c r="I100" s="6">
+        <v>24</v>
+      </c>
+      <c r="J100" t="s">
         <v>18</v>
       </c>
-      <c r="K99" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B100" s="2">
-        <v>901</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F100" s="2">
-        <v>10510</v>
-      </c>
-      <c r="G100" s="2">
-        <v>170</v>
-      </c>
-      <c r="H100" s="2">
-        <v>9</v>
-      </c>
-      <c r="I100" s="2">
-        <v>24</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="ALV100"/>
-      <c r="ALW100"/>
-      <c r="ALX100"/>
-      <c r="ALY100"/>
-      <c r="ALZ100"/>
-      <c r="AMA100"/>
-      <c r="AMB100"/>
-      <c r="AMC100"/>
-      <c r="AMD100"/>
-      <c r="AME100"/>
-      <c r="AMF100"/>
-      <c r="AMG100"/>
-      <c r="AMH100"/>
-      <c r="AMI100"/>
-      <c r="AMJ100"/>
-    </row>
-    <row r="101" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="K100" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B101">
         <v>269</v>
       </c>
       <c r="C101" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E101" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F101">
         <v>6225</v>
@@ -5114,27 +5347,27 @@
         <v>94</v>
       </c>
       <c r="J101" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K101" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>298</v>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="B102">
         <v>345</v>
       </c>
       <c r="C102" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E102" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F102">
         <v>63188</v>
@@ -5149,27 +5382,21 @@
         <v>171</v>
       </c>
       <c r="J102" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K102" t="s">
-        <v>19</v>
-      </c>
-      <c r="L102" t="s">
-        <v>18</v>
-      </c>
-      <c r="M102" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>301</v>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="B103">
         <v>335</v>
       </c>
       <c r="C103" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F103">
         <v>14980</v>
@@ -5184,30 +5411,24 @@
         <v>19</v>
       </c>
       <c r="J103" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K103" t="s">
-        <v>23</v>
-      </c>
-      <c r="L103" t="s">
-        <v>18</v>
-      </c>
-      <c r="M103" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>302</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="B104">
         <v>112</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E104" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F104">
         <v>14594</v>
@@ -5222,33 +5443,27 @@
         <v>21</v>
       </c>
       <c r="J104" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K104" t="s">
-        <v>19</v>
-      </c>
-      <c r="L104" t="s">
-        <v>18</v>
-      </c>
-      <c r="M104" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>304</v>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="B105">
         <v>1543</v>
       </c>
       <c r="C105" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E105" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F105">
         <v>82850</v>
@@ -5263,33 +5478,27 @@
         <v>88</v>
       </c>
       <c r="J105" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K105" t="s">
-        <v>23</v>
-      </c>
-      <c r="L105" t="s">
-        <v>21</v>
-      </c>
-      <c r="M105" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>307</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="B106">
         <v>823</v>
       </c>
       <c r="C106" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E106" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F106">
         <v>35190</v>
@@ -5304,30 +5513,24 @@
         <v>27</v>
       </c>
       <c r="J106" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K106" t="s">
-        <v>24</v>
-      </c>
-      <c r="L106" t="s">
-        <v>18</v>
-      </c>
-      <c r="M106" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>310</v>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="B107">
         <v>410</v>
       </c>
       <c r="C107" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E107" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F107">
         <v>50595</v>
@@ -5342,30 +5545,24 @@
         <v>31</v>
       </c>
       <c r="J107" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K107" t="s">
-        <v>19</v>
-      </c>
-      <c r="L107" t="s">
-        <v>18</v>
-      </c>
-      <c r="M107" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
-        <v>312</v>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="B108">
         <v>123</v>
       </c>
       <c r="C108" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E108" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F108">
         <v>19196</v>
@@ -5380,33 +5577,27 @@
         <v>30569</v>
       </c>
       <c r="J108" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K108" t="s">
-        <v>92</v>
-      </c>
-      <c r="L108" t="s">
-        <v>18</v>
-      </c>
-      <c r="M108" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>314</v>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="B109">
         <v>3782</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E109" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F109">
         <v>39793</v>
@@ -5421,30 +5612,24 @@
         <v>64</v>
       </c>
       <c r="J109" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K109" t="s">
-        <v>24</v>
-      </c>
-      <c r="L109" t="s">
-        <v>18</v>
-      </c>
-      <c r="M109" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>317</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="B110">
         <v>178</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E110" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F110">
         <v>5273</v>
@@ -5459,33 +5644,27 @@
         <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K110" t="s">
-        <v>19</v>
-      </c>
-      <c r="L110" t="s">
-        <v>18</v>
-      </c>
-      <c r="M110" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>319</v>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="B111">
         <v>216</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E111" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F111">
         <v>40096</v>
@@ -5500,30 +5679,24 @@
         <v>71</v>
       </c>
       <c r="J111" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K111" t="s">
-        <v>24</v>
-      </c>
-      <c r="L111" t="s">
-        <v>18</v>
-      </c>
-      <c r="M111" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>322</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="B112">
         <v>302</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F112">
         <v>6475</v>
@@ -5538,33 +5711,27 @@
         <v>22</v>
       </c>
       <c r="J112" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K112" t="s">
-        <v>19</v>
-      </c>
-      <c r="L112" t="s">
-        <v>18</v>
-      </c>
-      <c r="M112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>324</v>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="B113">
         <v>133</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E113" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F113">
         <v>183718</v>
@@ -5579,33 +5746,27 @@
         <v>67</v>
       </c>
       <c r="J113" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K113" t="s">
-        <v>19</v>
-      </c>
-      <c r="L113" t="s">
-        <v>18</v>
-      </c>
-      <c r="M113" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>327</v>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="B114">
         <v>214</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D114" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E114" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F114">
         <v>13235</v>
@@ -5620,33 +5781,27 @@
         <v>7</v>
       </c>
       <c r="J114" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K114" t="s">
-        <v>19</v>
-      </c>
-      <c r="L114" t="s">
-        <v>18</v>
-      </c>
-      <c r="M114" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>330</v>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="B115">
         <v>3784</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D115" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E115" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F115">
         <v>108698</v>
@@ -5661,33 +5816,27 @@
         <v>248</v>
       </c>
       <c r="J115" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K115" t="s">
-        <v>23</v>
-      </c>
-      <c r="L115" t="s">
-        <v>18</v>
-      </c>
-      <c r="M115" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>333</v>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="B116">
         <v>364</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D116" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E116" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F116">
         <v>10085</v>
@@ -5702,27 +5851,21 @@
         <v>43</v>
       </c>
       <c r="J116" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K116" t="s">
-        <v>24</v>
-      </c>
-      <c r="L116" t="s">
-        <v>18</v>
-      </c>
-      <c r="M116" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>336</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="B117">
         <v>162</v>
       </c>
       <c r="C117" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F117">
         <v>27366</v>
@@ -5737,33 +5880,27 @@
         <v>10</v>
       </c>
       <c r="J117" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K117" t="s">
-        <v>19</v>
-      </c>
-      <c r="L117" t="s">
-        <v>21</v>
-      </c>
-      <c r="M117" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
-        <v>337</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="B118">
         <v>330</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D118" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E118" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F118">
         <v>7347</v>
@@ -5778,33 +5915,27 @@
         <v>5</v>
       </c>
       <c r="J118" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K118" t="s">
-        <v>23</v>
-      </c>
-      <c r="L118" t="s">
-        <v>21</v>
-      </c>
-      <c r="M118" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>340</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="B119">
         <v>257</v>
       </c>
       <c r="C119" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E119" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F119">
         <v>14726</v>
@@ -5819,33 +5950,27 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K119" t="s">
-        <v>24</v>
-      </c>
-      <c r="L119" t="s">
-        <v>18</v>
-      </c>
-      <c r="M119" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>343</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="B120">
         <v>471</v>
       </c>
       <c r="C120" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D120" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E120" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F120">
         <v>7402</v>
@@ -5860,33 +5985,27 @@
         <v>4</v>
       </c>
       <c r="J120" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K120" t="s">
-        <v>280</v>
-      </c>
-      <c r="L120" t="s">
-        <v>21</v>
-      </c>
-      <c r="M120" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>346</v>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="B121">
         <v>245</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D121" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E121" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="F121">
         <v>28311</v>
@@ -5901,33 +6020,27 @@
         <v>48</v>
       </c>
       <c r="J121" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K121" t="s">
-        <v>24</v>
-      </c>
-      <c r="L121" t="s">
-        <v>18</v>
-      </c>
-      <c r="M121" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>349</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="B122">
         <v>422</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D122" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E122" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F122">
         <v>34594</v>
@@ -5942,33 +6055,27 @@
         <v>12</v>
       </c>
       <c r="J122" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K122" t="s">
-        <v>19</v>
-      </c>
-      <c r="L122" t="s">
-        <v>20</v>
-      </c>
-      <c r="M122" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>352</v>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="B123">
         <v>4032</v>
       </c>
       <c r="C123" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D123" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E123" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F123">
         <v>96311</v>
@@ -5983,33 +6090,27 @@
         <v>14949</v>
       </c>
       <c r="J123" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K123" t="s">
-        <v>24</v>
-      </c>
-      <c r="L123" t="s">
-        <v>18</v>
-      </c>
-      <c r="M123" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>355</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="B124">
         <v>286</v>
       </c>
       <c r="C124" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D124" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E124" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F124">
         <v>22882</v>
@@ -6024,30 +6125,24 @@
         <v>66</v>
       </c>
       <c r="J124" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K124" t="s">
-        <v>19</v>
-      </c>
-      <c r="L124" t="s">
-        <v>20</v>
-      </c>
-      <c r="M124" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>358</v>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="B125">
         <v>861</v>
       </c>
       <c r="C125" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E125" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F125">
         <v>12385</v>
@@ -6062,30 +6157,24 @@
         <v>44</v>
       </c>
       <c r="J125" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K125" t="s">
-        <v>19</v>
-      </c>
-      <c r="L125" t="s">
-        <v>20</v>
-      </c>
-      <c r="M125" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>360</v>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="B126">
         <v>279</v>
       </c>
       <c r="C126" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E126" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F126">
         <v>6902</v>
@@ -6100,30 +6189,24 @@
         <v>193</v>
       </c>
       <c r="J126" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="K126" t="s">
-        <v>19</v>
-      </c>
-      <c r="L126" t="s">
-        <v>18</v>
-      </c>
-      <c r="M126" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>362</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="B127">
         <v>327</v>
       </c>
       <c r="C127" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E127" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F127">
         <v>6168</v>
@@ -6138,33 +6221,27 @@
         <v>3</v>
       </c>
       <c r="J127" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K127" t="s">
-        <v>23</v>
-      </c>
-      <c r="L127" t="s">
-        <v>21</v>
-      </c>
-      <c r="M127" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>364</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="B128">
         <v>1471</v>
       </c>
       <c r="C128" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D128" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E128" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F128">
         <v>22540</v>
@@ -6179,33 +6256,27 @@
         <v>33</v>
       </c>
       <c r="J128" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K128" t="s">
-        <v>19</v>
-      </c>
-      <c r="L128" t="s">
-        <v>21</v>
-      </c>
-      <c r="M128" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>367</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="B129">
         <v>500</v>
       </c>
       <c r="C129" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D129" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E129" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F129">
         <v>14618</v>
@@ -6220,33 +6291,27 @@
         <v>6</v>
       </c>
       <c r="J129" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K129" t="s">
-        <v>23</v>
-      </c>
-      <c r="L129" t="s">
-        <v>18</v>
-      </c>
-      <c r="M129" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
-        <v>370</v>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="B130">
         <v>4474</v>
       </c>
       <c r="C130" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D130" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E130" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F130">
         <v>375129</v>
@@ -6261,33 +6326,27 @@
         <v>35</v>
       </c>
       <c r="J130" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K130" t="s">
-        <v>19</v>
-      </c>
-      <c r="L130" t="s">
-        <v>18</v>
-      </c>
-      <c r="M130" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>373</v>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="B131">
         <v>221</v>
       </c>
       <c r="C131" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D131" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="E131" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F131">
         <v>22653</v>
@@ -6302,16 +6361,1023 @@
         <v>28</v>
       </c>
       <c r="J131" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K131" t="s">
-        <v>24</v>
-      </c>
-      <c r="L131" t="s">
-        <v>148</v>
-      </c>
-      <c r="M131" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B132">
+        <v>163</v>
+      </c>
+      <c r="C132" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" t="s">
+        <v>371</v>
+      </c>
+      <c r="F132">
+        <v>9727</v>
+      </c>
+      <c r="G132">
+        <v>142</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>11</v>
+      </c>
+      <c r="J132" t="s">
+        <v>16</v>
+      </c>
+      <c r="K132" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B133">
+        <v>145</v>
+      </c>
+      <c r="C133" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133" t="s">
+        <v>373</v>
+      </c>
+      <c r="E133" t="s">
+        <v>374</v>
+      </c>
+      <c r="F133">
+        <v>161862</v>
+      </c>
+      <c r="G133">
+        <v>1311</v>
+      </c>
+      <c r="H133">
+        <v>4</v>
+      </c>
+      <c r="I133">
+        <v>295</v>
+      </c>
+      <c r="J133" t="s">
+        <v>16</v>
+      </c>
+      <c r="K133" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B134">
+        <v>1682</v>
+      </c>
+      <c r="C134" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" t="s">
+        <v>376</v>
+      </c>
+      <c r="E134" t="s">
+        <v>377</v>
+      </c>
+      <c r="F134">
+        <v>34117</v>
+      </c>
+      <c r="G134">
+        <v>181</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
         <v>23</v>
+      </c>
+      <c r="J134" t="s">
+        <v>19</v>
+      </c>
+      <c r="K134" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B135">
+        <v>269</v>
+      </c>
+      <c r="C135" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135" t="s">
+        <v>379</v>
+      </c>
+      <c r="E135" t="s">
+        <v>380</v>
+      </c>
+      <c r="F135">
+        <v>6483</v>
+      </c>
+      <c r="G135">
+        <v>27</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>4</v>
+      </c>
+      <c r="J135" t="s">
+        <v>18</v>
+      </c>
+      <c r="K135" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B136">
+        <v>720</v>
+      </c>
+      <c r="C136" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" t="s">
+        <v>382</v>
+      </c>
+      <c r="F136">
+        <v>5376</v>
+      </c>
+      <c r="G136">
+        <v>28</v>
+      </c>
+      <c r="H136">
+        <v>26</v>
+      </c>
+      <c r="I136">
+        <v>9</v>
+      </c>
+      <c r="J136" t="s">
+        <v>16</v>
+      </c>
+      <c r="K136" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B137">
+        <v>119</v>
+      </c>
+      <c r="C137" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" t="s">
+        <v>384</v>
+      </c>
+      <c r="E137" t="s">
+        <v>385</v>
+      </c>
+      <c r="F137">
+        <v>38831</v>
+      </c>
+      <c r="G137">
+        <v>175</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>62</v>
+      </c>
+      <c r="J137" t="s">
+        <v>18</v>
+      </c>
+      <c r="K137" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B138">
+        <v>111</v>
+      </c>
+      <c r="C138" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" t="s">
+        <v>387</v>
+      </c>
+      <c r="F138">
+        <v>6093</v>
+      </c>
+      <c r="G138">
+        <v>25</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>36</v>
+      </c>
+      <c r="J138" t="s">
+        <v>19</v>
+      </c>
+      <c r="K138" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B139">
+        <v>457</v>
+      </c>
+      <c r="C139" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" t="s">
+        <v>389</v>
+      </c>
+      <c r="F139">
+        <v>6930</v>
+      </c>
+      <c r="G139">
+        <v>117</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="J139" t="s">
+        <v>19</v>
+      </c>
+      <c r="K139" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B140">
+        <v>791</v>
+      </c>
+      <c r="C140" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140" t="s">
+        <v>391</v>
+      </c>
+      <c r="E140" t="s">
+        <v>392</v>
+      </c>
+      <c r="F140">
+        <v>7691</v>
+      </c>
+      <c r="G140">
+        <v>79</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>4</v>
+      </c>
+      <c r="J140" t="s">
+        <v>16</v>
+      </c>
+      <c r="K140" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B141">
+        <v>137</v>
+      </c>
+      <c r="C141" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" t="s">
+        <v>394</v>
+      </c>
+      <c r="E141" t="s">
+        <v>395</v>
+      </c>
+      <c r="F141">
+        <v>5594</v>
+      </c>
+      <c r="G141">
+        <v>167</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141" t="s">
+        <v>16</v>
+      </c>
+      <c r="K141" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B142">
+        <v>301</v>
+      </c>
+      <c r="C142" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" t="s">
+        <v>397</v>
+      </c>
+      <c r="E142" t="s">
+        <v>398</v>
+      </c>
+      <c r="F142">
+        <v>21968</v>
+      </c>
+      <c r="G142">
+        <v>471</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>59</v>
+      </c>
+      <c r="J142" t="s">
+        <v>18</v>
+      </c>
+      <c r="K142" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B143">
+        <v>215</v>
+      </c>
+      <c r="C143" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" t="s">
+        <v>400</v>
+      </c>
+      <c r="F143">
+        <v>48662</v>
+      </c>
+      <c r="G143">
+        <v>432</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>10</v>
+      </c>
+      <c r="J143" t="s">
+        <v>16</v>
+      </c>
+      <c r="K143" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B144">
+        <v>111</v>
+      </c>
+      <c r="C144" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144" t="s">
+        <v>402</v>
+      </c>
+      <c r="E144" t="s">
+        <v>403</v>
+      </c>
+      <c r="F144">
+        <v>29489</v>
+      </c>
+      <c r="G144">
+        <v>282</v>
+      </c>
+      <c r="H144">
+        <v>3</v>
+      </c>
+      <c r="I144">
+        <v>187</v>
+      </c>
+      <c r="J144" t="s">
+        <v>18</v>
+      </c>
+      <c r="K144" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B145">
+        <v>228</v>
+      </c>
+      <c r="C145" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145" t="s">
+        <v>405</v>
+      </c>
+      <c r="E145" t="s">
+        <v>406</v>
+      </c>
+      <c r="F145">
+        <v>13876</v>
+      </c>
+      <c r="G145">
+        <v>99</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>35</v>
+      </c>
+      <c r="J145" t="s">
+        <v>16</v>
+      </c>
+      <c r="K145" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B146">
+        <v>103</v>
+      </c>
+      <c r="C146" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" t="s">
+        <v>408</v>
+      </c>
+      <c r="E146" t="s">
+        <v>409</v>
+      </c>
+      <c r="F146">
+        <v>14019</v>
+      </c>
+      <c r="G146">
+        <v>203</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>22</v>
+      </c>
+      <c r="J146" t="s">
+        <v>19</v>
+      </c>
+      <c r="K146" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B147" s="3">
+        <v>104</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3">
+        <v>16294</v>
+      </c>
+      <c r="G147" s="3">
+        <v>159</v>
+      </c>
+      <c r="H147" s="3">
+        <v>0</v>
+      </c>
+      <c r="I147" s="3">
+        <v>23</v>
+      </c>
+      <c r="J147" t="s">
+        <v>16</v>
+      </c>
+      <c r="K147" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B148" s="3">
+        <v>504</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F148" s="3">
+        <v>89751</v>
+      </c>
+      <c r="G148" s="3">
+        <v>1833</v>
+      </c>
+      <c r="H148" s="3">
+        <v>0</v>
+      </c>
+      <c r="I148" s="3">
+        <v>9</v>
+      </c>
+      <c r="J148" t="s">
+        <v>19</v>
+      </c>
+      <c r="K148" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B149" s="3">
+        <v>545</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F149" s="3">
+        <v>30744</v>
+      </c>
+      <c r="G149" s="3">
+        <v>336</v>
+      </c>
+      <c r="H149" s="3">
+        <v>0</v>
+      </c>
+      <c r="I149" s="3">
+        <v>142</v>
+      </c>
+      <c r="J149" t="s">
+        <v>16</v>
+      </c>
+      <c r="K149" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B150" s="3">
+        <v>178</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F150" s="3">
+        <v>10811</v>
+      </c>
+      <c r="G150" s="3">
+        <v>61</v>
+      </c>
+      <c r="H150" s="3">
+        <v>0</v>
+      </c>
+      <c r="I150" s="3">
+        <v>1</v>
+      </c>
+      <c r="J150" t="s">
+        <v>18</v>
+      </c>
+      <c r="K150" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B151" s="3">
+        <v>146</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F151" s="3">
+        <v>47849</v>
+      </c>
+      <c r="G151" s="3">
+        <v>602</v>
+      </c>
+      <c r="H151" s="3">
+        <v>0</v>
+      </c>
+      <c r="I151" s="3">
+        <v>78</v>
+      </c>
+      <c r="J151" t="s">
+        <v>16</v>
+      </c>
+      <c r="K151" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B152" s="3">
+        <v>796</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="F152" s="3">
+        <v>6110</v>
+      </c>
+      <c r="G152" s="3">
+        <v>102</v>
+      </c>
+      <c r="H152" s="3">
+        <v>0</v>
+      </c>
+      <c r="I152" s="3">
+        <v>31</v>
+      </c>
+      <c r="J152" t="s">
+        <v>19</v>
+      </c>
+      <c r="K152" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B153" s="3">
+        <v>231</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F153" s="3">
+        <v>15996</v>
+      </c>
+      <c r="G153" s="3">
+        <v>156</v>
+      </c>
+      <c r="H153" s="3">
+        <v>0</v>
+      </c>
+      <c r="I153" s="3">
+        <v>7</v>
+      </c>
+      <c r="J153" t="s">
+        <v>16</v>
+      </c>
+      <c r="K153" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B154" s="3">
+        <v>210</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3">
+        <v>9562</v>
+      </c>
+      <c r="G154" s="3">
+        <v>68</v>
+      </c>
+      <c r="H154" s="3">
+        <v>0</v>
+      </c>
+      <c r="I154" s="3">
+        <v>3</v>
+      </c>
+      <c r="J154" t="s">
+        <v>16</v>
+      </c>
+      <c r="K154" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B155" s="3">
+        <v>399</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3">
+        <v>6291</v>
+      </c>
+      <c r="G155" s="3">
+        <v>62</v>
+      </c>
+      <c r="H155" s="3">
+        <v>0</v>
+      </c>
+      <c r="I155" s="3">
+        <v>1</v>
+      </c>
+      <c r="J155" t="s">
+        <v>16</v>
+      </c>
+      <c r="K155" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B156" s="3">
+        <v>1345</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F156" s="3">
+        <v>47405</v>
+      </c>
+      <c r="G156" s="3">
+        <v>362</v>
+      </c>
+      <c r="H156" s="3">
+        <v>0</v>
+      </c>
+      <c r="I156" s="3">
+        <v>38</v>
+      </c>
+      <c r="J156" t="s">
+        <v>19</v>
+      </c>
+      <c r="K156" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B157" s="3">
+        <v>150</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="F157" s="3">
+        <v>37402</v>
+      </c>
+      <c r="G157" s="3">
+        <v>175</v>
+      </c>
+      <c r="H157" s="3">
+        <v>1</v>
+      </c>
+      <c r="I157" s="3">
+        <v>503</v>
+      </c>
+      <c r="J157" t="s">
+        <v>16</v>
+      </c>
+      <c r="K157" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B158" s="3">
+        <v>556</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F158" s="3">
+        <v>22958</v>
+      </c>
+      <c r="G158" s="3">
+        <v>203</v>
+      </c>
+      <c r="H158" s="3">
+        <v>0</v>
+      </c>
+      <c r="I158" s="3">
+        <v>9</v>
+      </c>
+      <c r="J158" t="s">
+        <v>16</v>
+      </c>
+      <c r="K158" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B159" s="3">
+        <v>111</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="F159" s="3">
+        <v>5154</v>
+      </c>
+      <c r="G159" s="3">
+        <v>49</v>
+      </c>
+      <c r="H159" s="3">
+        <v>0</v>
+      </c>
+      <c r="I159" s="3">
+        <v>23</v>
+      </c>
+      <c r="J159" t="s">
+        <v>16</v>
+      </c>
+      <c r="K159" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B160" s="3">
+        <v>254</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="F160" s="3">
+        <v>25706</v>
+      </c>
+      <c r="G160" s="3">
+        <v>144</v>
+      </c>
+      <c r="H160" s="3">
+        <v>0</v>
+      </c>
+      <c r="I160" s="3">
+        <v>30</v>
+      </c>
+      <c r="J160" t="s">
+        <v>175</v>
+      </c>
+      <c r="K160" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B161" s="3">
+        <v>456</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="F161" s="3">
+        <v>33124</v>
+      </c>
+      <c r="G161" s="3">
+        <v>378</v>
+      </c>
+      <c r="H161" s="3">
+        <v>0</v>
+      </c>
+      <c r="I161" s="3">
+        <v>22</v>
+      </c>
+      <c r="J161" t="s">
+        <v>18</v>
+      </c>
+      <c r="K161" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -6350,6 +7416,22 @@
     <hyperlink ref="A129" r:id="rId28" xr:uid="{DE118CB6-F21E-42A2-B872-D6BC8CE3EFAF}"/>
     <hyperlink ref="A130" r:id="rId29" xr:uid="{E291CD9D-C495-432E-8AFB-975B0EE65555}"/>
     <hyperlink ref="A131" r:id="rId30" xr:uid="{3DE1EB34-2770-4DCE-AB53-86E5468D07FD}"/>
+    <hyperlink ref="A132" r:id="rId31" xr:uid="{8A16FC32-4A66-40DB-B3BF-7053B6B09577}"/>
+    <hyperlink ref="A133" r:id="rId32" xr:uid="{75BB839F-C2A7-4FCF-B18F-6AAA6153ED23}"/>
+    <hyperlink ref="A134" r:id="rId33" xr:uid="{1F65D77B-1093-472C-BB54-B3F6E536742B}"/>
+    <hyperlink ref="A135" r:id="rId34" xr:uid="{83DC6690-4F30-45DD-B0F9-FC305E4726B9}"/>
+    <hyperlink ref="A136" r:id="rId35" xr:uid="{CCF59DB1-C61A-46DF-83E0-8465446F5B5F}"/>
+    <hyperlink ref="A137" r:id="rId36" xr:uid="{E0320279-1728-4E03-957D-3EF81D91F8DB}"/>
+    <hyperlink ref="A138" r:id="rId37" xr:uid="{09F2C651-6F56-4E71-A3E9-732D31DFB4E2}"/>
+    <hyperlink ref="A139" r:id="rId38" xr:uid="{3DAE8CDF-F018-44BD-8322-19C3B59C53E0}"/>
+    <hyperlink ref="A140" r:id="rId39" xr:uid="{79D11AC0-1522-4F2B-B7F9-9C36279BF3F0}"/>
+    <hyperlink ref="A141" r:id="rId40" xr:uid="{29627A93-328E-4DC7-89F9-BDF1A8EEAE5C}"/>
+    <hyperlink ref="A142" r:id="rId41" xr:uid="{8FF532B8-C8DF-46A4-8610-20C382924B55}"/>
+    <hyperlink ref="A143" r:id="rId42" xr:uid="{EEB41751-230F-448C-8CE4-059F57BD6C3F}"/>
+    <hyperlink ref="A144" r:id="rId43" xr:uid="{870C2B95-DB68-47D9-A1E0-88DB2C0ECBDE}"/>
+    <hyperlink ref="A145" r:id="rId44" xr:uid="{F645B7F8-A885-4B22-8477-0061A8F09925}"/>
+    <hyperlink ref="A146" r:id="rId45" xr:uid="{7F2A367A-8194-4AC5-8190-9258F8E894A5}"/>
+    <hyperlink ref="A157" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
